--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83289.13</v>
+        <v>214858.13</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11898.45</v>
+        <v>13428.63</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8195.719999999999</v>
+        <v>9011.450000000001</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.23</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13223.9</v>
+        <v>10229.95</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13864.21</v>
+        <v>10134.02</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4052.22</v>
+        <v>4047.28</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2767.35</v>
+        <v>2774.6</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,97 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41088.5</v>
+        <v>41091.51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11487.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24493.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>360.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>975.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>71667.56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>504.35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10123.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14361.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3499.96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,185 +439,242 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214858.13</v>
+        <v>2774.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2771.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13428.63</v>
-      </c>
+        <v>9011.450000000001</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9011.450000000001</v>
+        <v>11487.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14070.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.56</v>
+        <v>975.11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>974.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10229.95</v>
+        <v>71667.56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71663.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10134.02</v>
+        <v>24493.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4047.28</v>
+        <v>360.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>359.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2774.6</v>
+        <v>10229.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10260.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41091.51</v>
+        <v>10134.02</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10142.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11487.33</v>
+        <v>96.56</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24493.8</v>
+        <v>41091.51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41083.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.15</v>
+        <v>3499.96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3501.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>975.11</v>
+        <v>504.35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>704.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71667.56</v>
+        <v>10123.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10125.97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.35</v>
+        <v>4047.28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4052.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10123.25</v>
+        <v>14361.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14407.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14361.25</v>
+        <v>13428.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13915.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3499.96</v>
+        <v>214858.13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>208733.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,185 +439,244 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218130.32</v>
+        <v>2771.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3769.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13633.15</v>
+        <v>9397.280000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9965.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2771.33</v>
+        <v>14070.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14055.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9397.280000000001</v>
+        <v>24500</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24468.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14070.6</v>
+        <v>359.58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>359.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24500</v>
+        <v>974.99</v>
+      </c>
+      <c r="C7" t="n">
+        <v>974.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.58</v>
+        <v>71663.11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71627.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>974.99</v>
+        <v>10260.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6666.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71663.11</v>
+        <v>10142.32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6728.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10260.35</v>
+        <v>114.67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10142.32</v>
+        <v>41083.81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41102.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.67</v>
+        <v>3501.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3499.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41083.81</v>
+        <v>704.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>695.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3501.03</v>
+        <v>10125.97</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10122.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.72</v>
+        <v>4052.68</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11639.92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10125.97</v>
+        <v>14407.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33192.71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4052.68</v>
+        <v>13633.15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14936.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14407.88</v>
+        <v>218130.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>238983.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -493,9 +493,7 @@
       <c r="B5" t="n">
         <v>24500</v>
       </c>
-      <c r="C5" t="n">
-        <v>24468.72</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -506,9 +504,7 @@
       <c r="B6" t="n">
         <v>359.58</v>
       </c>
-      <c r="C6" t="n">
-        <v>359.72</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,9 +515,7 @@
       <c r="B7" t="n">
         <v>974.99</v>
       </c>
-      <c r="C7" t="n">
-        <v>974.83</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,9 +526,7 @@
       <c r="B8" t="n">
         <v>71663.11</v>
       </c>
-      <c r="C8" t="n">
-        <v>71627.84</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +537,7 @@
       <c r="B9" t="n">
         <v>10260.35</v>
       </c>
-      <c r="C9" t="n">
-        <v>6666.05</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +548,7 @@
       <c r="B10" t="n">
         <v>10142.32</v>
       </c>
-      <c r="C10" t="n">
-        <v>6728.6</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -663,7 +651,7 @@
         <v>13633.15</v>
       </c>
       <c r="C18" t="n">
-        <v>14936.49</v>
+        <v>12815.81</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +664,7 @@
         <v>218130.32</v>
       </c>
       <c r="C19" t="n">
-        <v>238983.9</v>
+        <v>128158.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,852 +436,529 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2771.33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3769.95</v>
-      </c>
+          <t>1810 Renta variable</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3768.99</v>
+        <v>2951.51</v>
       </c>
       <c r="E2" t="n">
-        <v>3770.5</v>
+        <v>2994.18</v>
       </c>
       <c r="F2" t="n">
-        <v>3771.21</v>
+        <v>3501.22</v>
       </c>
       <c r="G2" t="n">
-        <v>3765.86</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3770.42</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3771.49</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3765.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3774.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3766.96</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3772.9</v>
+        <v>4020.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9397.280000000001</v>
+        <v>3772.9</v>
       </c>
       <c r="C3" t="n">
-        <v>9965.25</v>
+        <v>3768.66</v>
       </c>
       <c r="D3" t="n">
-        <v>9951.18</v>
+        <v>3707.87</v>
       </c>
       <c r="E3" t="n">
-        <v>10369.88</v>
+        <v>3768.2</v>
       </c>
       <c r="F3" t="n">
-        <v>11007.93</v>
+        <v>4884.72</v>
       </c>
       <c r="G3" t="n">
-        <v>11009.17</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11823.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13352.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13324.43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13320.17</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13333.05</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13324.8</v>
+        <v>4892.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14070.6</v>
+        <v>13324.8</v>
       </c>
       <c r="C4" t="n">
-        <v>14055.35</v>
+        <v>13328.29</v>
       </c>
       <c r="D4" t="n">
-        <v>14068.61</v>
+        <v>13104</v>
       </c>
       <c r="E4" t="n">
-        <v>14053.44</v>
+        <v>13353.85</v>
       </c>
       <c r="F4" t="n">
-        <v>13629.54</v>
+        <v>13318.36</v>
       </c>
       <c r="G4" t="n">
-        <v>13231.61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13223.28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13217.99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13232.84</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13226.71</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10151.13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10153.63</v>
+        <v>12873.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24500</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>10153.63</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10160.66</v>
+      </c>
       <c r="D5" t="n">
-        <v>24452.53</v>
+        <v>9994.379999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>24481.61</v>
+        <v>8203.379999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>24474.7</v>
+        <v>6239.56</v>
       </c>
       <c r="G5" t="n">
-        <v>24477.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>24464.11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24474.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>24488.52</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24474.19</v>
-      </c>
-      <c r="L5" t="n">
-        <v>24481.87</v>
-      </c>
-      <c r="M5" t="n">
-        <v>24474.72</v>
+        <v>1992.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.58</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>24474.72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24478.81</v>
+      </c>
       <c r="D6" t="n">
-        <v>360.02</v>
+        <v>24059.16</v>
       </c>
       <c r="E6" t="n">
-        <v>359.81</v>
+        <v>24464.75</v>
       </c>
       <c r="F6" t="n">
-        <v>360.05</v>
+        <v>24460.98</v>
       </c>
       <c r="G6" t="n">
-        <v>360.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>359.37</v>
-      </c>
-      <c r="I6" t="n">
-        <v>360.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>359.95</v>
-      </c>
-      <c r="K6" t="n">
-        <v>360.22</v>
-      </c>
-      <c r="L6" t="n">
-        <v>360.23</v>
-      </c>
-      <c r="M6" t="n">
-        <v>360.21</v>
+        <v>23469.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>974.99</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>360.21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>360.58</v>
+      </c>
       <c r="D7" t="n">
-        <v>975.02</v>
+        <v>354.12</v>
       </c>
       <c r="E7" t="n">
-        <v>974.99</v>
+        <v>360.16</v>
       </c>
       <c r="F7" t="n">
-        <v>976.34</v>
+        <v>359.89</v>
       </c>
       <c r="G7" t="n">
-        <v>974.88</v>
-      </c>
-      <c r="H7" t="n">
-        <v>975.61</v>
-      </c>
-      <c r="I7" t="n">
-        <v>976.4299999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>974.37</v>
-      </c>
-      <c r="K7" t="n">
-        <v>975.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>973.99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>974.61</v>
+        <v>360.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71663.11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>974.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>974.98</v>
+      </c>
       <c r="D8" t="n">
-        <v>68160.25</v>
+        <v>959.41</v>
       </c>
       <c r="E8" t="n">
-        <v>68162.52</v>
+        <v>974.72</v>
       </c>
       <c r="F8" t="n">
-        <v>66925.71000000001</v>
+        <v>974.59</v>
       </c>
       <c r="G8" t="n">
-        <v>66917.64999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>66945.00999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66959.52</v>
-      </c>
-      <c r="J8" t="n">
-        <v>66927.86</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66923.94</v>
-      </c>
-      <c r="L8" t="n">
-        <v>64050.45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>64020.25</v>
+        <v>974.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10260.35</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>64020.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64034.6</v>
+      </c>
       <c r="D9" t="n">
-        <v>3770.09</v>
+        <v>63015.95</v>
       </c>
       <c r="E9" t="n">
-        <v>4297.37</v>
+        <v>64037.16</v>
       </c>
       <c r="F9" t="n">
-        <v>4270.12</v>
+        <v>64033.11</v>
       </c>
       <c r="G9" t="n">
-        <v>6766.86</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11112.04</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12120.56</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12972.78</v>
-      </c>
-      <c r="K9" t="n">
-        <v>16740.46</v>
-      </c>
-      <c r="L9" t="n">
-        <v>16072.69</v>
-      </c>
-      <c r="M9" t="n">
-        <v>16076.07</v>
+        <v>60703.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10142.32</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>16076.07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15832</v>
+      </c>
       <c r="D10" t="n">
-        <v>3811.32</v>
+        <v>15566.75</v>
       </c>
       <c r="E10" t="n">
-        <v>4073.02</v>
+        <v>15048.12</v>
       </c>
       <c r="F10" t="n">
-        <v>4056.73</v>
+        <v>16671.25</v>
       </c>
       <c r="G10" t="n">
-        <v>6616.21</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10080.93</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11011.93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11853.84</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15373.92</v>
-      </c>
-      <c r="L10" t="n">
-        <v>14945.22</v>
-      </c>
-      <c r="M10" t="n">
-        <v>14939.16</v>
+        <v>19540.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.67</v>
+        <v>14939.16</v>
       </c>
       <c r="C11" t="n">
-        <v>114.8</v>
+        <v>14925.48</v>
       </c>
       <c r="D11" t="n">
-        <v>118.85</v>
+        <v>14704.64</v>
       </c>
       <c r="E11" t="n">
-        <v>126.72</v>
+        <v>13794.26</v>
       </c>
       <c r="F11" t="n">
-        <v>127.42</v>
+        <v>16232.45</v>
       </c>
       <c r="G11" t="n">
-        <v>121.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>115.74</v>
-      </c>
-      <c r="I11" t="n">
-        <v>118.04</v>
-      </c>
-      <c r="J11" t="n">
-        <v>104.46</v>
-      </c>
-      <c r="K11" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>100.12</v>
-      </c>
-      <c r="M11" t="n">
-        <v>98.06</v>
+        <v>18215.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41083.81</v>
+        <v>98.06</v>
       </c>
       <c r="C12" t="n">
-        <v>41102.1</v>
+        <v>132.71</v>
       </c>
       <c r="D12" t="n">
-        <v>21091.21</v>
+        <v>126.52</v>
       </c>
       <c r="E12" t="n">
-        <v>21088.85</v>
+        <v>125.31</v>
       </c>
       <c r="F12" t="n">
-        <v>21094.04</v>
+        <v>125.67</v>
       </c>
       <c r="G12" t="n">
-        <v>21080.78</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21847.26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21111.83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21094.23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21092.47</v>
-      </c>
-      <c r="L12" t="n">
-        <v>21919.63</v>
-      </c>
-      <c r="M12" t="n">
-        <v>21091.2</v>
+        <v>133.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3501.03</v>
+        <v>21091.2</v>
       </c>
       <c r="C13" t="n">
-        <v>3499.52</v>
+        <v>21091.79</v>
       </c>
       <c r="D13" t="n">
-        <v>3500.21</v>
+        <v>20748.89</v>
       </c>
       <c r="E13" t="n">
-        <v>3500.98</v>
+        <v>21088.18</v>
       </c>
       <c r="F13" t="n">
-        <v>3500.17</v>
+        <v>21083.12</v>
       </c>
       <c r="G13" t="n">
-        <v>3499.91</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3499.03</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3501.02</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3500.34</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3500.37</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3500.44</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2999.21</v>
+        <v>21085.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>704.72</v>
+        <v>2999.21</v>
       </c>
       <c r="C14" t="n">
-        <v>695.95</v>
+        <v>2850.32</v>
       </c>
       <c r="D14" t="n">
-        <v>701.39</v>
+        <v>2459.28</v>
       </c>
       <c r="E14" t="n">
-        <v>699.95</v>
+        <v>2500.13</v>
       </c>
       <c r="F14" t="n">
-        <v>699.78</v>
+        <v>2500.04</v>
       </c>
       <c r="G14" t="n">
-        <v>702.95</v>
-      </c>
-      <c r="H14" t="n">
-        <v>705.49</v>
-      </c>
-      <c r="I14" t="n">
-        <v>697.62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>697.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>696.4299999999999</v>
-      </c>
-      <c r="L14" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>703.6799999999999</v>
+        <v>3199.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10125.97</v>
+        <v>703.6799999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>10122.59</v>
+        <v>549.15</v>
       </c>
       <c r="D15" t="n">
-        <v>10121.51</v>
+        <v>541.38</v>
       </c>
       <c r="E15" t="n">
-        <v>10121.16</v>
+        <v>547.84</v>
       </c>
       <c r="F15" t="n">
-        <v>10127</v>
+        <v>545.97</v>
       </c>
       <c r="G15" t="n">
-        <v>10126.27</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10128.26</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10125.45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10124.27</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10128.15</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10124.72</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10126.76</v>
+        <v>553.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4052.68</v>
+        <v>10126.76</v>
       </c>
       <c r="C16" t="n">
-        <v>11639.92</v>
+        <v>10122.95</v>
       </c>
       <c r="D16" t="n">
-        <v>11644.28</v>
+        <v>9962.559999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>18283.45</v>
+        <v>6425.93</v>
       </c>
       <c r="F16" t="n">
-        <v>18311.01</v>
+        <v>6425.64</v>
       </c>
       <c r="G16" t="n">
-        <v>18294.15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18302.37</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18270.86</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18285.42</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18306.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18304.56</v>
-      </c>
-      <c r="M16" t="n">
-        <v>18287.71</v>
+        <v>6425.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1702.66</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1706.07</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1700.38</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1305.47</v>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18287.71</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18284.38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17988.01</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18305.04</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18288.95</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18288.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14407.88</v>
+        <v>1305.47</v>
       </c>
       <c r="C18" t="n">
-        <v>33192.71</v>
+        <v>2295.54</v>
       </c>
       <c r="D18" t="n">
-        <v>49429.1</v>
+        <v>2270.25</v>
       </c>
       <c r="E18" t="n">
-        <v>106275.43</v>
+        <v>2304.38</v>
       </c>
       <c r="F18" t="n">
-        <v>106441.65</v>
+        <v>1695.27</v>
       </c>
       <c r="G18" t="n">
-        <v>106649.24</v>
-      </c>
-      <c r="H18" t="n">
-        <v>106468.31</v>
-      </c>
-      <c r="I18" t="n">
-        <v>106556.11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>92108.89</v>
-      </c>
-      <c r="K18" t="n">
-        <v>92101.48</v>
-      </c>
-      <c r="L18" t="n">
-        <v>60703.52</v>
-      </c>
-      <c r="M18" t="n">
-        <v>60829.3</v>
+        <v>1409.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13633.15</v>
+        <v>60829.3</v>
       </c>
       <c r="C19" t="n">
-        <v>12815.81</v>
+        <v>60814.56</v>
       </c>
       <c r="D19" t="n">
-        <v>14120.28</v>
+        <v>59779.73</v>
       </c>
       <c r="E19" t="n">
-        <v>18164.98</v>
+        <v>60762.2</v>
       </c>
       <c r="F19" t="n">
-        <v>18110.84</v>
+        <v>60753.86</v>
       </c>
       <c r="G19" t="n">
-        <v>18412.13</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18988.81</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19164.16</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17383.39</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17811.92</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15599.11</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15502.22</v>
+        <v>73063.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15502.22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15529.73</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14571.91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14392.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14560.81</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15066.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>218130.32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>128158.14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225924.56</v>
-      </c>
-      <c r="E20" t="n">
-        <v>290639.68</v>
-      </c>
-      <c r="F20" t="n">
-        <v>289773.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>294594.14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>303820.98</v>
-      </c>
-      <c r="I20" t="n">
-        <v>306626.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>295517.66</v>
-      </c>
-      <c r="K20" t="n">
-        <v>302802.69</v>
-      </c>
-      <c r="L20" t="n">
-        <v>265184.86</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="B21" t="n">
         <v>263537.74</v>
+      </c>
+      <c r="C21" t="n">
+        <v>264005.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>262294.41</v>
+      </c>
+      <c r="E21" t="n">
+        <v>259057.79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>262094.65</v>
+      </c>
+      <c r="G21" t="n">
+        <v>271200.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,529 +436,852 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>Adcap IOL Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2771.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3769.95</v>
+      </c>
       <c r="D2" t="n">
-        <v>2951.51</v>
+        <v>3768.99</v>
       </c>
       <c r="E2" t="n">
-        <v>2994.18</v>
+        <v>3770.5</v>
       </c>
       <c r="F2" t="n">
-        <v>3501.22</v>
+        <v>3771.21</v>
       </c>
       <c r="G2" t="n">
-        <v>4020.19</v>
+        <v>3765.86</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3770.42</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3771.49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3765.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3774.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3766.96</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3772.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3772.9</v>
+        <v>9397.280000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3768.66</v>
+        <v>9965.25</v>
       </c>
       <c r="D3" t="n">
-        <v>3707.87</v>
+        <v>9951.18</v>
       </c>
       <c r="E3" t="n">
-        <v>3768.2</v>
+        <v>10369.88</v>
       </c>
       <c r="F3" t="n">
-        <v>4884.72</v>
+        <v>11007.93</v>
       </c>
       <c r="G3" t="n">
-        <v>4892.18</v>
+        <v>11009.17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11823.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13352.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13324.43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13320.17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13333.05</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13324.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13324.8</v>
+        <v>14070.6</v>
       </c>
       <c r="C4" t="n">
-        <v>13328.29</v>
+        <v>14055.35</v>
       </c>
       <c r="D4" t="n">
-        <v>13104</v>
+        <v>14068.61</v>
       </c>
       <c r="E4" t="n">
-        <v>13353.85</v>
+        <v>14053.44</v>
       </c>
       <c r="F4" t="n">
-        <v>13318.36</v>
+        <v>13629.54</v>
       </c>
       <c r="G4" t="n">
-        <v>12873.74</v>
+        <v>13231.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13223.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13217.99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13232.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13226.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10151.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10153.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10153.63</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10160.66</v>
-      </c>
+        <v>24500</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>9994.379999999999</v>
+        <v>24452.53</v>
       </c>
       <c r="E5" t="n">
-        <v>8203.379999999999</v>
+        <v>24481.61</v>
       </c>
       <c r="F5" t="n">
-        <v>6239.56</v>
+        <v>24474.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1992.42</v>
+        <v>24477.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24464.11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24474.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24488.52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24474.19</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24481.87</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24474.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24474.72</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24478.81</v>
-      </c>
+        <v>359.58</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>24059.16</v>
+        <v>360.02</v>
       </c>
       <c r="E6" t="n">
-        <v>24464.75</v>
+        <v>359.81</v>
       </c>
       <c r="F6" t="n">
-        <v>24460.98</v>
+        <v>360.05</v>
       </c>
       <c r="G6" t="n">
-        <v>23469.47</v>
+        <v>360.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="I6" t="n">
+        <v>360.35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>359.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>360.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>360.23</v>
+      </c>
+      <c r="M6" t="n">
+        <v>360.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>360.58</v>
-      </c>
+        <v>974.99</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>354.12</v>
+        <v>975.02</v>
       </c>
       <c r="E7" t="n">
-        <v>360.16</v>
+        <v>974.99</v>
       </c>
       <c r="F7" t="n">
-        <v>359.89</v>
+        <v>976.34</v>
       </c>
       <c r="G7" t="n">
-        <v>360.08</v>
+        <v>974.88</v>
+      </c>
+      <c r="H7" t="n">
+        <v>975.61</v>
+      </c>
+      <c r="I7" t="n">
+        <v>976.4299999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>974.37</v>
+      </c>
+      <c r="K7" t="n">
+        <v>975.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>973.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>974.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.61</v>
-      </c>
-      <c r="C8" t="n">
-        <v>974.98</v>
-      </c>
+        <v>71663.11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>959.41</v>
+        <v>68160.25</v>
       </c>
       <c r="E8" t="n">
-        <v>974.72</v>
+        <v>68162.52</v>
       </c>
       <c r="F8" t="n">
-        <v>974.59</v>
+        <v>66925.71000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>974.14</v>
+        <v>66917.64999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66945.00999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66959.52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66927.86</v>
+      </c>
+      <c r="K8" t="n">
+        <v>66923.94</v>
+      </c>
+      <c r="L8" t="n">
+        <v>64050.45</v>
+      </c>
+      <c r="M8" t="n">
+        <v>64020.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64020.25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64034.6</v>
-      </c>
+        <v>10260.35</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>63015.95</v>
+        <v>3770.09</v>
       </c>
       <c r="E9" t="n">
-        <v>64037.16</v>
+        <v>4297.37</v>
       </c>
       <c r="F9" t="n">
-        <v>64033.11</v>
+        <v>4270.12</v>
       </c>
       <c r="G9" t="n">
-        <v>60703.19</v>
+        <v>6766.86</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11112.04</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12120.56</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12972.78</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16740.46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16072.69</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16076.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16076.07</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15832</v>
-      </c>
+        <v>10142.32</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>15566.75</v>
+        <v>3811.32</v>
       </c>
       <c r="E10" t="n">
-        <v>15048.12</v>
+        <v>4073.02</v>
       </c>
       <c r="F10" t="n">
-        <v>16671.25</v>
+        <v>4056.73</v>
       </c>
       <c r="G10" t="n">
-        <v>19540.35</v>
+        <v>6616.21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10080.93</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11011.93</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11853.84</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15373.92</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14945.22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14939.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14939.16</v>
+        <v>114.67</v>
       </c>
       <c r="C11" t="n">
-        <v>14925.48</v>
+        <v>114.8</v>
       </c>
       <c r="D11" t="n">
-        <v>14704.64</v>
+        <v>118.85</v>
       </c>
       <c r="E11" t="n">
-        <v>13794.26</v>
+        <v>126.72</v>
       </c>
       <c r="F11" t="n">
-        <v>16232.45</v>
+        <v>127.42</v>
       </c>
       <c r="G11" t="n">
-        <v>18215.68</v>
+        <v>121.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="I11" t="n">
+        <v>118.04</v>
+      </c>
+      <c r="J11" t="n">
+        <v>104.46</v>
+      </c>
+      <c r="K11" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100.12</v>
+      </c>
+      <c r="M11" t="n">
+        <v>98.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.06</v>
+        <v>41083.81</v>
       </c>
       <c r="C12" t="n">
-        <v>132.71</v>
+        <v>41102.1</v>
       </c>
       <c r="D12" t="n">
-        <v>126.52</v>
+        <v>21091.21</v>
       </c>
       <c r="E12" t="n">
-        <v>125.31</v>
+        <v>21088.85</v>
       </c>
       <c r="F12" t="n">
-        <v>125.67</v>
+        <v>21094.04</v>
       </c>
       <c r="G12" t="n">
-        <v>133.67</v>
+        <v>21080.78</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21847.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21111.83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21094.23</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21092.47</v>
+      </c>
+      <c r="L12" t="n">
+        <v>21919.63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21091.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21091.2</v>
+        <v>3501.03</v>
       </c>
       <c r="C13" t="n">
-        <v>21091.79</v>
+        <v>3499.52</v>
       </c>
       <c r="D13" t="n">
-        <v>20748.89</v>
+        <v>3500.21</v>
       </c>
       <c r="E13" t="n">
-        <v>21088.18</v>
+        <v>3500.98</v>
       </c>
       <c r="F13" t="n">
-        <v>21083.12</v>
+        <v>3500.17</v>
       </c>
       <c r="G13" t="n">
-        <v>21085.36</v>
+        <v>3499.91</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3499.03</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3501.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3500.34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3500.37</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3500.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2999.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2999.21</v>
+        <v>704.72</v>
       </c>
       <c r="C14" t="n">
-        <v>2850.32</v>
+        <v>695.95</v>
       </c>
       <c r="D14" t="n">
-        <v>2459.28</v>
+        <v>701.39</v>
       </c>
       <c r="E14" t="n">
-        <v>2500.13</v>
+        <v>699.95</v>
       </c>
       <c r="F14" t="n">
-        <v>2500.04</v>
+        <v>699.78</v>
       </c>
       <c r="G14" t="n">
-        <v>3199.62</v>
+        <v>702.95</v>
+      </c>
+      <c r="H14" t="n">
+        <v>705.49</v>
+      </c>
+      <c r="I14" t="n">
+        <v>697.62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>697.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>696.4299999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>703.6799999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>703.6799999999999</v>
+        <v>10125.97</v>
       </c>
       <c r="C15" t="n">
-        <v>549.15</v>
+        <v>10122.59</v>
       </c>
       <c r="D15" t="n">
-        <v>541.38</v>
+        <v>10121.51</v>
       </c>
       <c r="E15" t="n">
-        <v>547.84</v>
+        <v>10121.16</v>
       </c>
       <c r="F15" t="n">
-        <v>545.97</v>
+        <v>10127</v>
       </c>
       <c r="G15" t="n">
-        <v>553.39</v>
+        <v>10126.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10128.26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10125.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10124.27</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10128.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10124.72</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10126.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10126.76</v>
+        <v>4052.68</v>
       </c>
       <c r="C16" t="n">
-        <v>10122.95</v>
+        <v>11639.92</v>
       </c>
       <c r="D16" t="n">
-        <v>9962.559999999999</v>
+        <v>11644.28</v>
       </c>
       <c r="E16" t="n">
-        <v>6425.93</v>
+        <v>18283.45</v>
       </c>
       <c r="F16" t="n">
-        <v>6425.64</v>
+        <v>18311.01</v>
       </c>
       <c r="G16" t="n">
-        <v>6425.2</v>
+        <v>18294.15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18302.37</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18270.86</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18285.42</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18306.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18304.56</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18287.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18287.71</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18284.38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17988.01</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18305.04</v>
-      </c>
-      <c r="F17" t="n">
-        <v>18288.95</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18288.36</v>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1702.66</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1706.07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1700.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1305.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1305.47</v>
+        <v>14407.88</v>
       </c>
       <c r="C18" t="n">
-        <v>2295.54</v>
+        <v>33192.71</v>
       </c>
       <c r="D18" t="n">
-        <v>2270.25</v>
+        <v>49429.1</v>
       </c>
       <c r="E18" t="n">
-        <v>2304.38</v>
+        <v>106275.43</v>
       </c>
       <c r="F18" t="n">
-        <v>1695.27</v>
+        <v>106441.65</v>
       </c>
       <c r="G18" t="n">
-        <v>1409.89</v>
+        <v>106649.24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>106468.31</v>
+      </c>
+      <c r="I18" t="n">
+        <v>106556.11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>92108.89</v>
+      </c>
+      <c r="K18" t="n">
+        <v>92101.48</v>
+      </c>
+      <c r="L18" t="n">
+        <v>60703.52</v>
+      </c>
+      <c r="M18" t="n">
+        <v>60829.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60829.3</v>
+        <v>13633.15</v>
       </c>
       <c r="C19" t="n">
-        <v>60814.56</v>
+        <v>12815.81</v>
       </c>
       <c r="D19" t="n">
-        <v>59779.73</v>
+        <v>14120.28</v>
       </c>
       <c r="E19" t="n">
-        <v>60762.2</v>
+        <v>18164.98</v>
       </c>
       <c r="F19" t="n">
-        <v>60753.86</v>
+        <v>18110.84</v>
       </c>
       <c r="G19" t="n">
-        <v>73063.7</v>
+        <v>18412.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18988.81</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19164.16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17383.39</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17811.92</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15599.11</v>
+      </c>
+      <c r="M19" t="n">
+        <v>15502.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15502.22</v>
+        <v>218130.32</v>
       </c>
       <c r="C20" t="n">
-        <v>15529.73</v>
+        <v>128158.14</v>
       </c>
       <c r="D20" t="n">
-        <v>14571.91</v>
+        <v>225924.56</v>
       </c>
       <c r="E20" t="n">
-        <v>14392.1</v>
+        <v>290639.68</v>
       </c>
       <c r="F20" t="n">
-        <v>14560.81</v>
+        <v>289773.4</v>
       </c>
       <c r="G20" t="n">
-        <v>15066.7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+        <v>294594.14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>303820.98</v>
+      </c>
+      <c r="I20" t="n">
+        <v>306626.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>295517.66</v>
+      </c>
+      <c r="K20" t="n">
+        <v>302802.69</v>
+      </c>
+      <c r="L20" t="n">
+        <v>265184.86</v>
+      </c>
+      <c r="M20" t="n">
         <v>263537.74</v>
-      </c>
-      <c r="C21" t="n">
-        <v>264005.46</v>
-      </c>
-      <c r="D21" t="n">
-        <v>262294.41</v>
-      </c>
-      <c r="E21" t="n">
-        <v>259057.79</v>
-      </c>
-      <c r="F21" t="n">
-        <v>262094.65</v>
-      </c>
-      <c r="G21" t="n">
-        <v>271200.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VIST.xlsx
+++ b/backend/src/excel_handler/files/VIST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,852 +436,1984 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2771.33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3769.95</v>
-      </c>
+          <t>1810 Renta variable</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3768.99</v>
+        <v>2951.51</v>
       </c>
       <c r="E2" t="n">
-        <v>3770.5</v>
+        <v>2994.18</v>
       </c>
       <c r="F2" t="n">
-        <v>3771.21</v>
+        <v>3501.22</v>
       </c>
       <c r="G2" t="n">
-        <v>3765.86</v>
+        <v>4020.19</v>
       </c>
       <c r="H2" t="n">
-        <v>3770.42</v>
+        <v>4021.59</v>
       </c>
       <c r="I2" t="n">
-        <v>3771.49</v>
+        <v>4014.52</v>
       </c>
       <c r="J2" t="n">
-        <v>3765.4</v>
+        <v>6054.08</v>
       </c>
       <c r="K2" t="n">
-        <v>3774.1</v>
+        <v>6489.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3766.96</v>
+        <v>6958.95</v>
       </c>
       <c r="M2" t="n">
-        <v>3772.9</v>
+        <v>7811.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8623.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9625.129999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11504.49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11200.51</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11146.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11135.49</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11147.84</v>
+      </c>
+      <c r="U2" t="n">
+        <v>11787.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>11665.02</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12709.41</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15901.23</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14865.37</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14788.17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12685.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9397.280000000001</v>
+        <v>3772.9</v>
       </c>
       <c r="C3" t="n">
-        <v>9965.25</v>
+        <v>3768.66</v>
       </c>
       <c r="D3" t="n">
-        <v>9951.18</v>
+        <v>3707.87</v>
       </c>
       <c r="E3" t="n">
-        <v>10369.88</v>
+        <v>3768.2</v>
       </c>
       <c r="F3" t="n">
-        <v>11007.93</v>
+        <v>4884.72</v>
       </c>
       <c r="G3" t="n">
-        <v>11009.17</v>
+        <v>4892.18</v>
       </c>
       <c r="H3" t="n">
-        <v>11823.75</v>
+        <v>4896.27</v>
       </c>
       <c r="I3" t="n">
-        <v>13352.55</v>
+        <v>4891.57</v>
       </c>
       <c r="J3" t="n">
-        <v>13324.43</v>
+        <v>4892.5</v>
       </c>
       <c r="K3" t="n">
-        <v>13320.17</v>
+        <v>4884.53</v>
       </c>
       <c r="L3" t="n">
-        <v>13333.05</v>
+        <v>4892.22</v>
       </c>
       <c r="M3" t="n">
-        <v>13324.8</v>
+        <v>4898.19</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4881.55</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5675.04</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5690.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6424.98</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6432.61</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6443.89</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6435.55</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6448.21</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6446.56</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6454.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6436.42</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6450.23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6445.51</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6437.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14070.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14055.35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14068.61</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14053.44</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13629.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13231.61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13223.28</v>
-      </c>
+          <t>Alpha Recursos Naturales</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>13217.99</v>
+        <v>5051</v>
       </c>
       <c r="J4" t="n">
-        <v>13232.84</v>
+        <v>10748.87</v>
       </c>
       <c r="K4" t="n">
-        <v>13226.71</v>
+        <v>10747.05</v>
       </c>
       <c r="L4" t="n">
-        <v>10151.13</v>
+        <v>10758.19</v>
       </c>
       <c r="M4" t="n">
-        <v>10153.63</v>
+        <v>10757.69</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10758.57</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10748.19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10763.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10754.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10744.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10742.9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10851.44</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10764.58</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10756.77</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10752.96</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10767.52</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10751.96</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10745.63</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10751.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24500</v>
-      </c>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>24452.53</v>
-      </c>
-      <c r="E5" t="n">
-        <v>24481.61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24474.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24477.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>24464.11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24474.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>24488.52</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24474.19</v>
-      </c>
-      <c r="L5" t="n">
-        <v>24481.87</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>24474.72</v>
+        <v>99.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>100.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100.03</v>
+      </c>
+      <c r="P5" t="n">
+        <v>100.83</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>99.09</v>
+      </c>
+      <c r="T5" t="n">
+        <v>101.56</v>
+      </c>
+      <c r="U5" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="W5" t="n">
+        <v>100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>101.13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>99.06999999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359.58</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>13324.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13328.29</v>
+      </c>
       <c r="D6" t="n">
-        <v>360.02</v>
+        <v>13104</v>
       </c>
       <c r="E6" t="n">
-        <v>359.81</v>
+        <v>13353.85</v>
       </c>
       <c r="F6" t="n">
-        <v>360.05</v>
+        <v>13318.36</v>
       </c>
       <c r="G6" t="n">
-        <v>360.25</v>
+        <v>12873.74</v>
       </c>
       <c r="H6" t="n">
-        <v>359.37</v>
+        <v>12597.93</v>
       </c>
       <c r="I6" t="n">
-        <v>360.35</v>
+        <v>12607.31</v>
       </c>
       <c r="J6" t="n">
-        <v>359.95</v>
+        <v>12613.54</v>
       </c>
       <c r="K6" t="n">
-        <v>360.22</v>
+        <v>12584.25</v>
       </c>
       <c r="L6" t="n">
-        <v>360.23</v>
+        <v>12608.02</v>
       </c>
       <c r="M6" t="n">
-        <v>360.21</v>
+        <v>12304</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12310.53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12790.38</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13402.14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14613.59</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14938.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15325.12</v>
+      </c>
+      <c r="T6" t="n">
+        <v>15325.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>14498.04</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15082.79</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15570.22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16454.38</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16083.56</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15269.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15003.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>974.99</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>10153.63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10160.66</v>
+      </c>
       <c r="D7" t="n">
-        <v>975.02</v>
+        <v>9994.379999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>974.99</v>
+        <v>8203.379999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>976.34</v>
+        <v>6239.56</v>
       </c>
       <c r="G7" t="n">
-        <v>974.88</v>
+        <v>1992.42</v>
       </c>
       <c r="H7" t="n">
-        <v>975.61</v>
+        <v>1983.44</v>
       </c>
       <c r="I7" t="n">
-        <v>976.4299999999999</v>
+        <v>1995.26</v>
       </c>
       <c r="J7" t="n">
-        <v>974.37</v>
+        <v>1983.11</v>
       </c>
       <c r="K7" t="n">
-        <v>975.7</v>
+        <v>2002.76</v>
       </c>
       <c r="L7" t="n">
-        <v>973.99</v>
+        <v>1991.31</v>
       </c>
       <c r="M7" t="n">
-        <v>974.61</v>
+        <v>2002.48</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1995.19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2000.69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1994.79</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>2287.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2287.66</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2281.74</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6523.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71663.11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>24474.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24478.81</v>
+      </c>
       <c r="D8" t="n">
-        <v>68160.25</v>
+        <v>24059.16</v>
       </c>
       <c r="E8" t="n">
-        <v>68162.52</v>
+        <v>24464.75</v>
       </c>
       <c r="F8" t="n">
-        <v>66925.71000000001</v>
+        <v>24460.98</v>
       </c>
       <c r="G8" t="n">
-        <v>66917.64999999999</v>
+        <v>23469.47</v>
       </c>
       <c r="H8" t="n">
-        <v>66945.00999999999</v>
+        <v>23460.42</v>
       </c>
       <c r="I8" t="n">
-        <v>66959.52</v>
+        <v>23162.21</v>
       </c>
       <c r="J8" t="n">
-        <v>66927.86</v>
+        <v>23149.16</v>
       </c>
       <c r="K8" t="n">
-        <v>66923.94</v>
+        <v>23149.48</v>
       </c>
       <c r="L8" t="n">
-        <v>64050.45</v>
+        <v>23160.59</v>
       </c>
       <c r="M8" t="n">
-        <v>64020.25</v>
+        <v>23166.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>23145.72</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23164.09</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23144.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>24783.94</v>
+      </c>
+      <c r="R8" t="n">
+        <v>24775.32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>24777.85</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24763.86</v>
+      </c>
+      <c r="U8" t="n">
+        <v>24775.69</v>
+      </c>
+      <c r="V8" t="n">
+        <v>24779.94</v>
+      </c>
+      <c r="W8" t="n">
+        <v>24778.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>26702.33</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>19984.84</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19410.33</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19423.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10260.35</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>360.21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>360.58</v>
+      </c>
       <c r="D9" t="n">
-        <v>3770.09</v>
+        <v>354.12</v>
       </c>
       <c r="E9" t="n">
-        <v>4297.37</v>
+        <v>360.16</v>
       </c>
       <c r="F9" t="n">
-        <v>4270.12</v>
+        <v>359.89</v>
       </c>
       <c r="G9" t="n">
-        <v>6766.86</v>
+        <v>360.08</v>
       </c>
       <c r="H9" t="n">
-        <v>11112.04</v>
+        <v>359.72</v>
       </c>
       <c r="I9" t="n">
-        <v>12120.56</v>
+        <v>359.63</v>
       </c>
       <c r="J9" t="n">
-        <v>12972.78</v>
+        <v>359.69</v>
       </c>
       <c r="K9" t="n">
-        <v>16740.46</v>
+        <v>359.64</v>
       </c>
       <c r="L9" t="n">
-        <v>16072.69</v>
+        <v>359.84</v>
       </c>
       <c r="M9" t="n">
-        <v>16076.07</v>
+        <v>359.77</v>
+      </c>
+      <c r="N9" t="n">
+        <v>359.68</v>
+      </c>
+      <c r="O9" t="n">
+        <v>360.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>359.97</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>360.22</v>
+      </c>
+      <c r="R9" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>359.93</v>
+      </c>
+      <c r="T9" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="U9" t="n">
+        <v>359.84</v>
+      </c>
+      <c r="V9" t="n">
+        <v>360.41</v>
+      </c>
+      <c r="W9" t="n">
+        <v>360.26</v>
+      </c>
+      <c r="X9" t="n">
+        <v>359.92</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>359.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10142.32</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>974.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>974.98</v>
+      </c>
       <c r="D10" t="n">
-        <v>3811.32</v>
+        <v>959.41</v>
       </c>
       <c r="E10" t="n">
-        <v>4073.02</v>
+        <v>974.72</v>
       </c>
       <c r="F10" t="n">
-        <v>4056.73</v>
+        <v>974.59</v>
       </c>
       <c r="G10" t="n">
-        <v>6616.21</v>
+        <v>974.14</v>
       </c>
       <c r="H10" t="n">
-        <v>10080.93</v>
+        <v>974.62</v>
       </c>
       <c r="I10" t="n">
-        <v>11011.93</v>
+        <v>975.46</v>
       </c>
       <c r="J10" t="n">
-        <v>11853.84</v>
+        <v>975.3099999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>15373.92</v>
+        <v>974.38</v>
       </c>
       <c r="L10" t="n">
-        <v>14945.22</v>
+        <v>975.51</v>
       </c>
       <c r="M10" t="n">
-        <v>14939.16</v>
+        <v>975.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>974.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>974.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>974.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>974.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>975.85</v>
+      </c>
+      <c r="S10" t="n">
+        <v>975.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>974.67</v>
+      </c>
+      <c r="U10" t="n">
+        <v>974.8200000000001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>974.65</v>
+      </c>
+      <c r="W10" t="n">
+        <v>974.79</v>
+      </c>
+      <c r="X10" t="n">
+        <v>974.34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>975.59</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>975.1799999999999</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>974.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.67</v>
+        <v>64020.25</v>
       </c>
       <c r="C11" t="n">
-        <v>114.8</v>
+        <v>64034.6</v>
       </c>
       <c r="D11" t="n">
-        <v>118.85</v>
+        <v>63015.95</v>
       </c>
       <c r="E11" t="n">
-        <v>126.72</v>
+        <v>64037.16</v>
       </c>
       <c r="F11" t="n">
-        <v>127.42</v>
+        <v>64033.11</v>
       </c>
       <c r="G11" t="n">
-        <v>121.25</v>
+        <v>60703.19</v>
       </c>
       <c r="H11" t="n">
-        <v>115.74</v>
+        <v>60745.36</v>
       </c>
       <c r="I11" t="n">
-        <v>118.04</v>
+        <v>60396.78</v>
       </c>
       <c r="J11" t="n">
-        <v>104.46</v>
+        <v>60374.4</v>
       </c>
       <c r="K11" t="n">
-        <v>101.4</v>
+        <v>63649.88</v>
       </c>
       <c r="L11" t="n">
-        <v>100.12</v>
+        <v>63662</v>
       </c>
       <c r="M11" t="n">
-        <v>98.06</v>
+        <v>63645.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>63642.59</v>
+      </c>
+      <c r="O11" t="n">
+        <v>63664.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>63637.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>65359</v>
+      </c>
+      <c r="R11" t="n">
+        <v>65324.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>65338.04</v>
+      </c>
+      <c r="T11" t="n">
+        <v>65334.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>65351.37</v>
+      </c>
+      <c r="V11" t="n">
+        <v>62367.15</v>
+      </c>
+      <c r="W11" t="n">
+        <v>62323.88</v>
+      </c>
+      <c r="X11" t="n">
+        <v>62315.15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>62313.86</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>58605.91</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>57048.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41083.81</v>
+        <v>16076.07</v>
       </c>
       <c r="C12" t="n">
-        <v>41102.1</v>
+        <v>15832</v>
       </c>
       <c r="D12" t="n">
-        <v>21091.21</v>
+        <v>15566.75</v>
       </c>
       <c r="E12" t="n">
-        <v>21088.85</v>
+        <v>15048.12</v>
       </c>
       <c r="F12" t="n">
-        <v>21094.04</v>
+        <v>16671.25</v>
       </c>
       <c r="G12" t="n">
-        <v>21080.78</v>
+        <v>19540.35</v>
       </c>
       <c r="H12" t="n">
-        <v>21847.26</v>
+        <v>18165.55</v>
       </c>
       <c r="I12" t="n">
-        <v>21111.83</v>
+        <v>17397.77</v>
       </c>
       <c r="J12" t="n">
-        <v>21094.23</v>
+        <v>14394.59</v>
       </c>
       <c r="K12" t="n">
-        <v>21092.47</v>
+        <v>14422.41</v>
       </c>
       <c r="L12" t="n">
-        <v>21919.63</v>
+        <v>14420.73</v>
       </c>
       <c r="M12" t="n">
-        <v>21091.2</v>
+        <v>15905.59</v>
+      </c>
+      <c r="N12" t="n">
+        <v>20906.67</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22696.12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>23560.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>24434.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17416.69</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15676.94</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12575.07</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12741.11</v>
+      </c>
+      <c r="V12" t="n">
+        <v>16986.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>17671.17</v>
+      </c>
+      <c r="X12" t="n">
+        <v>18109.26</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15790.33</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14421</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13455.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3501.03</v>
+        <v>14939.16</v>
       </c>
       <c r="C13" t="n">
-        <v>3499.52</v>
+        <v>14925.48</v>
       </c>
       <c r="D13" t="n">
-        <v>3500.21</v>
+        <v>14704.64</v>
       </c>
       <c r="E13" t="n">
-        <v>3500.98</v>
+        <v>13794.26</v>
       </c>
       <c r="F13" t="n">
-        <v>3500.17</v>
+        <v>16232.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3499.91</v>
+        <v>18215.68</v>
       </c>
       <c r="H13" t="n">
-        <v>3499.03</v>
+        <v>16827.63</v>
       </c>
       <c r="I13" t="n">
-        <v>3501.02</v>
+        <v>16049.76</v>
       </c>
       <c r="J13" t="n">
-        <v>3500.34</v>
+        <v>13970.19</v>
       </c>
       <c r="K13" t="n">
-        <v>3500.37</v>
+        <v>13950.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3500.44</v>
+        <v>13958.28</v>
       </c>
       <c r="M13" t="n">
-        <v>2999.21</v>
+        <v>16079.24</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20302.64</v>
+      </c>
+      <c r="O13" t="n">
+        <v>22538.06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23630.09</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>24027.45</v>
+      </c>
+      <c r="R13" t="n">
+        <v>16507</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14767.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>12067.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11786.47</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15504.85</v>
+      </c>
+      <c r="W13" t="n">
+        <v>16319.82</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16901.22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14513.97</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13568.72</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13238.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>704.72</v>
+        <v>98.06</v>
       </c>
       <c r="C14" t="n">
-        <v>695.95</v>
+        <v>132.71</v>
       </c>
       <c r="D14" t="n">
-        <v>701.39</v>
+        <v>126.52</v>
       </c>
       <c r="E14" t="n">
-        <v>699.95</v>
+        <v>125.31</v>
       </c>
       <c r="F14" t="n">
-        <v>699.78</v>
+        <v>125.67</v>
       </c>
       <c r="G14" t="n">
-        <v>702.95</v>
+        <v>133.67</v>
       </c>
       <c r="H14" t="n">
-        <v>705.49</v>
+        <v>135.14</v>
       </c>
       <c r="I14" t="n">
-        <v>697.62</v>
+        <v>1081.84</v>
       </c>
       <c r="J14" t="n">
-        <v>697.4</v>
+        <v>1614.95</v>
       </c>
       <c r="K14" t="n">
-        <v>696.4299999999999</v>
+        <v>1598.02</v>
       </c>
       <c r="L14" t="n">
-        <v>695.9</v>
+        <v>1589.76</v>
       </c>
       <c r="M14" t="n">
-        <v>703.6799999999999</v>
+        <v>1594.65</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1629.88</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1840.47</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2910.78</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2877.56</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2813.66</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2788.88</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2836.73</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2811.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2894.18</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2847.81</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2751.68</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2825.37</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2766.57</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2766.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10125.97</v>
+        <v>21091.2</v>
       </c>
       <c r="C15" t="n">
-        <v>10122.59</v>
+        <v>21091.79</v>
       </c>
       <c r="D15" t="n">
-        <v>10121.51</v>
+        <v>20748.89</v>
       </c>
       <c r="E15" t="n">
-        <v>10121.16</v>
+        <v>21088.18</v>
       </c>
       <c r="F15" t="n">
-        <v>10127</v>
+        <v>21083.12</v>
       </c>
       <c r="G15" t="n">
-        <v>10126.27</v>
+        <v>21085.36</v>
       </c>
       <c r="H15" t="n">
-        <v>10128.26</v>
+        <v>21085.86</v>
       </c>
       <c r="I15" t="n">
-        <v>10125.45</v>
+        <v>21086.1</v>
       </c>
       <c r="J15" t="n">
-        <v>10124.27</v>
+        <v>21082.8</v>
       </c>
       <c r="K15" t="n">
-        <v>10128.15</v>
+        <v>21097.53</v>
       </c>
       <c r="L15" t="n">
-        <v>10124.72</v>
+        <v>21090.86</v>
       </c>
       <c r="M15" t="n">
-        <v>10126.76</v>
+        <v>21092.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21082.33</v>
+      </c>
+      <c r="O15" t="n">
+        <v>21089.55</v>
+      </c>
+      <c r="P15" t="n">
+        <v>21092.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>21086.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>21096.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>21088.68</v>
+      </c>
+      <c r="T15" t="n">
+        <v>21090.16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>21087.97</v>
+      </c>
+      <c r="V15" t="n">
+        <v>21082.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>21094.92</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21085.43</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21085.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21094.53</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21088.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4052.68</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11639.92</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11644.28</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18283.45</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18311.01</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18294.15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18302.37</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18270.86</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18285.42</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18306.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18304.56</v>
-      </c>
-      <c r="M16" t="n">
-        <v>18287.71</v>
+          <t>Galileo Acciones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>21469.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2999.21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2850.32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2459.28</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2500.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2500.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3199.62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3199.12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3199.98</v>
+      </c>
       <c r="J17" t="n">
-        <v>1702.66</v>
+        <v>3199.19</v>
       </c>
       <c r="K17" t="n">
-        <v>1706.07</v>
+        <v>2899.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1700.38</v>
+        <v>2900.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1305.47</v>
+        <v>3199.43</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3200.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3200.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3200.52</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3499.99</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3498.97</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3500.45</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3528.28</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3350.08</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3350.64</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3450.15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3449.79</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3450.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3100.73</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2799.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14407.88</v>
+        <v>703.6799999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>33192.71</v>
+        <v>549.15</v>
       </c>
       <c r="D18" t="n">
-        <v>49429.1</v>
+        <v>541.38</v>
       </c>
       <c r="E18" t="n">
-        <v>106275.43</v>
+        <v>547.84</v>
       </c>
       <c r="F18" t="n">
-        <v>106441.65</v>
+        <v>545.97</v>
       </c>
       <c r="G18" t="n">
-        <v>106649.24</v>
+        <v>553.39</v>
       </c>
       <c r="H18" t="n">
-        <v>106468.31</v>
+        <v>554.11</v>
       </c>
       <c r="I18" t="n">
-        <v>106556.11</v>
+        <v>547.01</v>
       </c>
       <c r="J18" t="n">
-        <v>92108.89</v>
+        <v>546.88</v>
       </c>
       <c r="K18" t="n">
-        <v>92101.48</v>
+        <v>546.47</v>
       </c>
       <c r="L18" t="n">
-        <v>60703.52</v>
+        <v>547.0700000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>60829.3</v>
+        <v>548.6799999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>552.16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>549.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>548.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>545.0700000000001</v>
+      </c>
+      <c r="R18" t="n">
+        <v>548.9299999999999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>695.52</v>
+      </c>
+      <c r="T18" t="n">
+        <v>692.09</v>
+      </c>
+      <c r="U18" t="n">
+        <v>501.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>505.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>583.35</v>
+      </c>
+      <c r="X18" t="n">
+        <v>580.14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>429.99</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>507.79</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>510.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13633.15</v>
+        <v>10126.76</v>
       </c>
       <c r="C19" t="n">
-        <v>12815.81</v>
+        <v>10122.95</v>
       </c>
       <c r="D19" t="n">
-        <v>14120.28</v>
+        <v>9962.559999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>18164.98</v>
+        <v>6425.93</v>
       </c>
       <c r="F19" t="n">
-        <v>18110.84</v>
+        <v>6425.64</v>
       </c>
       <c r="G19" t="n">
-        <v>18412.13</v>
+        <v>6425.2</v>
       </c>
       <c r="H19" t="n">
-        <v>18988.81</v>
+        <v>6428.62</v>
       </c>
       <c r="I19" t="n">
-        <v>19164.16</v>
+        <v>6427.9</v>
       </c>
       <c r="J19" t="n">
-        <v>17383.39</v>
+        <v>6423.69</v>
       </c>
       <c r="K19" t="n">
-        <v>17811.92</v>
+        <v>6424.28</v>
       </c>
       <c r="L19" t="n">
-        <v>15599.11</v>
+        <v>6423.24</v>
       </c>
       <c r="M19" t="n">
-        <v>15502.22</v>
+        <v>6424.68</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6425.66</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6427.65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5774.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5771.36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5774.97</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5778.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5774.33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3977.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3976.02</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3976.58</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3975.81</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3971.67</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3975.56</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3972.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>Pionero Acciones</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18287.71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18284.38</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17988.01</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18305.04</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18288.95</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18288.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18305.38</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21410.26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21386.04</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21410.01</v>
+      </c>
+      <c r="L20" t="n">
+        <v>26943.41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>26956.28</v>
+      </c>
+      <c r="N20" t="n">
+        <v>26954.66</v>
+      </c>
+      <c r="O20" t="n">
+        <v>26953.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>26956.81</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>26935.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26943.27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>26944.92</v>
+      </c>
+      <c r="T20" t="n">
+        <v>27181.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>26954.87</v>
+      </c>
+      <c r="V20" t="n">
+        <v>26967.24</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26968.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>26963.58</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>26946.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26923.39</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26954.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1305.47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2295.54</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2270.25</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2304.38</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1695.27</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1409.89</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1411.07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1387.41</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1390.56</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1395.23</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1400.76</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1702.46</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1724.32</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1724.48</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1693.71</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2310.19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2294.38</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2300.32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2314.76</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1825.08</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1813.19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1778.35</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2590.2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2586.13</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2745.59</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3461.97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>60829.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>60814.56</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59779.73</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60762.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60753.86</v>
+      </c>
+      <c r="G22" t="n">
+        <v>73063.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>72918.17</v>
+      </c>
+      <c r="I22" t="n">
+        <v>83282.82000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>83513.86</v>
+      </c>
+      <c r="K22" t="n">
+        <v>83293.53999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>96687.23</v>
+      </c>
+      <c r="M22" t="n">
+        <v>96232.75999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>96268.52</v>
+      </c>
+      <c r="O22" t="n">
+        <v>102731.93</v>
+      </c>
+      <c r="P22" t="n">
+        <v>120621.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>136360.86</v>
+      </c>
+      <c r="R22" t="n">
+        <v>136098.74</v>
+      </c>
+      <c r="S22" t="n">
+        <v>136402.28</v>
+      </c>
+      <c r="T22" t="n">
+        <v>122210.35</v>
+      </c>
+      <c r="U22" t="n">
+        <v>122287.99</v>
+      </c>
+      <c r="V22" t="n">
+        <v>121972.39</v>
+      </c>
+      <c r="W22" t="n">
+        <v>122270.57</v>
+      </c>
+      <c r="X22" t="n">
+        <v>138409.32</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>120274.86</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>121978</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>122041.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15502.22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15529.73</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14571.91</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14392.1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14560.81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15066.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14892.78</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15017.08</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15193.34</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15362.02</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16385.71</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15787.74</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16291.99</v>
+      </c>
+      <c r="O23" t="n">
+        <v>16942.66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>18078.08</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>20127.32</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19357.38</v>
+      </c>
+      <c r="S23" t="n">
+        <v>19217.97</v>
+      </c>
+      <c r="T23" t="n">
+        <v>18187.73</v>
+      </c>
+      <c r="U23" t="n">
+        <v>18020.26</v>
+      </c>
+      <c r="V23" t="n">
+        <v>18294.07</v>
+      </c>
+      <c r="W23" t="n">
+        <v>18472.88</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18855.82</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17302.32</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17003.16</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17193.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>218130.32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>128158.14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225924.56</v>
-      </c>
-      <c r="E20" t="n">
-        <v>290639.68</v>
-      </c>
-      <c r="F20" t="n">
-        <v>289773.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>294594.14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>303820.98</v>
-      </c>
-      <c r="I20" t="n">
-        <v>306626.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>295517.66</v>
-      </c>
-      <c r="K20" t="n">
-        <v>302802.69</v>
-      </c>
-      <c r="L20" t="n">
-        <v>265184.86</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="B24" t="n">
         <v>263537.74</v>
+      </c>
+      <c r="C24" t="n">
+        <v>264005.46</v>
+      </c>
+      <c r="D24" t="n">
+        <v>262294.41</v>
+      </c>
+      <c r="E24" t="n">
+        <v>259057.79</v>
+      </c>
+      <c r="F24" t="n">
+        <v>262094.65</v>
+      </c>
+      <c r="G24" t="n">
+        <v>271200.63</v>
+      </c>
+      <c r="H24" t="n">
+        <v>268070</v>
+      </c>
+      <c r="I24" t="n">
+        <v>285324.59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>288673.41</v>
+      </c>
+      <c r="K24" t="n">
+        <v>291878.36</v>
+      </c>
+      <c r="L24" t="n">
+        <v>311328.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>315754.84</v>
+      </c>
+      <c r="N24" t="n">
+        <v>325839.77</v>
+      </c>
+      <c r="O24" t="n">
+        <v>338853.14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>361561.51</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>382419.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>367790.28</v>
+      </c>
+      <c r="S24" t="n">
+        <v>365141.46</v>
+      </c>
+      <c r="T24" t="n">
+        <v>345566.82</v>
+      </c>
+      <c r="U24" t="n">
+        <v>342384.85</v>
+      </c>
+      <c r="V24" t="n">
+        <v>347587.27</v>
+      </c>
+      <c r="W24" t="n">
+        <v>350984.74</v>
+      </c>
+      <c r="X24" t="n">
+        <v>377116.35</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>346046.45</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>340063.27</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>361065.73</v>
       </c>
     </row>
   </sheetData>
